--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1012,7 +1012,7 @@
         <v>jsoniterCodec</v>
       </c>
       <c r="F1" t="str">
-        <v>JsoniterCodec</v>
+        <v>gogoProtobuf</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1020,19 +1020,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>55673</v>
+        <v>56078</v>
       </c>
       <c r="C2">
-        <v>83500</v>
+        <v>82617</v>
       </c>
       <c r="D2">
-        <v>78382</v>
+        <v>85866</v>
       </c>
       <c r="E2">
-        <v>76149</v>
+        <v>77675</v>
       </c>
       <c r="F2">
-        <v>91124</v>
+        <v>93266</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57756</v>
+        <v>56135</v>
       </c>
       <c r="C3">
-        <v>83710</v>
+        <v>93040</v>
       </c>
       <c r="D3">
-        <v>73877</v>
+        <v>84803</v>
       </c>
       <c r="E3">
-        <v>75792</v>
+        <v>61827</v>
       </c>
       <c r="F3">
-        <v>91307</v>
+        <v>95895</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1060,19 +1060,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>57385</v>
+        <v>54896</v>
       </c>
       <c r="C4">
-        <v>82795</v>
+        <v>92575</v>
       </c>
       <c r="D4">
-        <v>80697</v>
+        <v>84976</v>
       </c>
       <c r="E4">
-        <v>78051</v>
+        <v>58782</v>
       </c>
       <c r="F4">
-        <v>91541</v>
+        <v>96172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1080,19 +1080,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>58513</v>
+        <v>55853</v>
       </c>
       <c r="C5">
-        <v>83850</v>
+        <v>92421</v>
       </c>
       <c r="D5">
-        <v>82685</v>
+        <v>84473</v>
       </c>
       <c r="E5">
-        <v>77942</v>
+        <v>60190</v>
       </c>
       <c r="F5">
-        <v>87183</v>
+        <v>97219</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1100,19 +1100,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>58132</v>
+        <v>56420</v>
       </c>
       <c r="C6">
-        <v>69013</v>
+        <v>90810</v>
       </c>
       <c r="D6">
-        <v>80192</v>
+        <v>81247</v>
       </c>
       <c r="E6">
-        <v>77507</v>
+        <v>77483</v>
       </c>
       <c r="F6">
-        <v>93720</v>
+        <v>94732</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1120,19 +1120,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>56915</v>
+        <v>56747</v>
       </c>
       <c r="C7">
-        <v>79681</v>
+        <v>89525</v>
       </c>
       <c r="D7">
-        <v>78702</v>
+        <v>78369</v>
       </c>
       <c r="E7">
-        <v>76769</v>
+        <v>73789</v>
       </c>
       <c r="F7">
-        <v>93023</v>
+        <v>94553</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1140,19 +1140,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>41397</v>
+        <v>57623</v>
       </c>
       <c r="C8">
-        <v>82973</v>
+        <v>89863</v>
       </c>
       <c r="D8">
-        <v>82603</v>
+        <v>82413</v>
       </c>
       <c r="E8">
-        <v>53044</v>
+        <v>77327</v>
       </c>
       <c r="F8">
-        <v>90285</v>
+        <v>95529</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1160,19 +1160,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>50525</v>
+        <v>57843</v>
       </c>
       <c r="C9">
-        <v>83626</v>
+        <v>72886</v>
       </c>
       <c r="D9">
-        <v>80749</v>
+        <v>79339</v>
       </c>
       <c r="E9">
-        <v>71265</v>
+        <v>79239</v>
       </c>
       <c r="F9">
-        <v>87366</v>
+        <v>89960</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1180,19 +1180,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>56350</v>
+        <v>55928</v>
       </c>
       <c r="C10">
-        <v>79063</v>
+        <v>90252</v>
       </c>
       <c r="D10">
-        <v>82277</v>
+        <v>76207</v>
       </c>
       <c r="E10">
-        <v>69910</v>
+        <v>77423</v>
       </c>
       <c r="F10">
-        <v>91441</v>
+        <v>97143</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1200,19 +1200,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>52197</v>
+        <v>44052</v>
       </c>
       <c r="C11">
-        <v>79113</v>
+        <v>89429</v>
       </c>
       <c r="D11">
-        <v>83222</v>
+        <v>78406</v>
       </c>
       <c r="E11">
-        <v>74973</v>
+        <v>73561</v>
       </c>
       <c r="F11">
-        <v>92592</v>
+        <v>95474</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1220,19 +1220,19 @@
         <v>avg</v>
       </c>
       <c r="B12">
-        <v>54484</v>
+        <v>55157</v>
       </c>
       <c r="C12">
-        <v>80732</v>
+        <v>88341</v>
       </c>
       <c r="D12">
-        <v>80338</v>
+        <v>81609</v>
       </c>
       <c r="E12">
-        <v>73140</v>
+        <v>71729</v>
       </c>
       <c r="F12">
-        <v>90958</v>
+        <v>94994</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26140" windowHeight="11080" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="11080" windowWidth="26140"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" relationships:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -209,10 +209,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -323,213 +329,213 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="1"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="2"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="3"/>
+    <cellStyle builtinId="20" name="输入" xfId="4"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="5"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="4" name="货币" xfId="7"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="8"/>
+    <cellStyle builtinId="5" name="百分比" xfId="9"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="10"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="11"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="12"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="13"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="14"/>
+    <cellStyle builtinId="22" name="计算" xfId="15"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="16"/>
+    <cellStyle builtinId="28" name="适中" xfId="17"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="18"/>
+    <cellStyle builtinId="26" name="好" xfId="19"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="20"/>
+    <cellStyle builtinId="25" name="汇总" xfId="21"/>
+    <cellStyle builtinId="27" name="差" xfId="22"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="25"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="26"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="27"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="28"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="29"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="30"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="31"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="32"/>
+    <cellStyle builtinId="15" name="标题" xfId="33"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="34"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="35"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="36"/>
+    <cellStyle builtinId="10" name="注释" xfId="37"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="38"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="39"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="40"/>
+    <cellStyle builtinId="8" name="超链接" xfId="41"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="42"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="47"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -810,11 +816,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -833,11 +839,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
+      <c r="F1" t="str">
+        <v>gogoProtobuf</v>
+      </c>
+      <c r="G1" t="str">
+        <v>gogoProtobuf_GenCode</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -857,10 +863,10 @@
         <v>81311</v>
       </c>
       <c r="F2">
-        <v>96866</v>
+        <v>1851</v>
       </c>
       <c r="G2">
-        <v>108990</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -880,10 +886,10 @@
         <v>83673</v>
       </c>
       <c r="F3">
-        <v>97661</v>
+        <v>4545</v>
       </c>
       <c r="G3">
-        <v>111203</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -903,10 +909,10 @@
         <v>87479</v>
       </c>
       <c r="F4">
-        <v>101818</v>
+        <v>8333</v>
       </c>
       <c r="G4">
-        <v>111563</v>
+        <v>4761</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -926,10 +932,10 @@
         <v>88629</v>
       </c>
       <c r="F5">
-        <v>103472</v>
+        <v>5882</v>
       </c>
       <c r="G5">
-        <v>109002</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -949,10 +955,10 @@
         <v>56420</v>
       </c>
       <c r="F6">
-        <v>105836</v>
+        <v>3125</v>
       </c>
       <c r="G6">
-        <v>115421</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -972,10 +978,10 @@
         <v>90439</v>
       </c>
       <c r="F7">
-        <v>107466</v>
+        <v>4545</v>
       </c>
       <c r="G7">
-        <v>110753</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -995,10 +1001,10 @@
         <v>82194</v>
       </c>
       <c r="F8">
-        <v>104392</v>
+        <v>6250</v>
       </c>
       <c r="G8">
-        <v>108943</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1018,10 +1024,10 @@
         <v>83865</v>
       </c>
       <c r="F9">
-        <v>105418</v>
+        <v>6666</v>
       </c>
       <c r="G9">
-        <v>115688</v>
+        <v>3703</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1041,10 +1047,10 @@
         <v>88965</v>
       </c>
       <c r="F10">
-        <v>104276</v>
+        <v>6250</v>
       </c>
       <c r="G10">
-        <v>113322</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1064,15 +1070,15 @@
         <v>83613</v>
       </c>
       <c r="F11">
-        <v>106347</v>
+        <v>4000</v>
       </c>
       <c r="G11">
-        <v>112568</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>6</v>
+      <c r="A12" t="str">
+        <v>avg</v>
       </c>
       <c r="B12">
         <v>65255</v>
@@ -1087,10 +1093,10 @@
         <v>82658</v>
       </c>
       <c r="F12">
-        <v>103355</v>
+        <v>5144</v>
       </c>
       <c r="G12">
-        <v>111745</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="13" spans="6:7">
@@ -1111,7 +1117,7 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="E14:G14"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -863,10 +863,10 @@
         <v>81311</v>
       </c>
       <c r="F2">
-        <v>1851</v>
+        <v>5882</v>
       </c>
       <c r="G2">
-        <v>3703</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -886,10 +886,10 @@
         <v>83673</v>
       </c>
       <c r="F3">
-        <v>4545</v>
+        <v>5000</v>
       </c>
       <c r="G3">
-        <v>3703</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -909,10 +909,10 @@
         <v>87479</v>
       </c>
       <c r="F4">
-        <v>8333</v>
+        <v>9090</v>
       </c>
       <c r="G4">
-        <v>4761</v>
+        <v>7142</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -932,10 +932,10 @@
         <v>88629</v>
       </c>
       <c r="F5">
-        <v>5882</v>
+        <v>14285</v>
       </c>
       <c r="G5">
-        <v>5882</v>
+        <v>8333</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -955,10 +955,10 @@
         <v>56420</v>
       </c>
       <c r="F6">
-        <v>3125</v>
+        <v>14285</v>
       </c>
       <c r="G6">
-        <v>4000</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -978,10 +978,10 @@
         <v>90439</v>
       </c>
       <c r="F7">
-        <v>4545</v>
+        <v>14285</v>
       </c>
       <c r="G7">
-        <v>4166</v>
+        <v>16666</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1001,10 +1001,10 @@
         <v>82194</v>
       </c>
       <c r="F8">
-        <v>6250</v>
+        <v>16666</v>
       </c>
       <c r="G8">
-        <v>5555</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1024,10 +1024,10 @@
         <v>83865</v>
       </c>
       <c r="F9">
-        <v>6666</v>
+        <v>16666</v>
       </c>
       <c r="G9">
-        <v>3703</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1047,10 +1047,10 @@
         <v>88965</v>
       </c>
       <c r="F10">
-        <v>6250</v>
+        <v>16666</v>
       </c>
       <c r="G10">
-        <v>2941</v>
+        <v>14285</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1070,10 +1070,10 @@
         <v>83613</v>
       </c>
       <c r="F11">
-        <v>4000</v>
+        <v>16666</v>
       </c>
       <c r="G11">
-        <v>3448</v>
+        <v>14285</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1093,10 +1093,10 @@
         <v>82658</v>
       </c>
       <c r="F12">
-        <v>5144</v>
+        <v>12949</v>
       </c>
       <c r="G12">
-        <v>4186</v>
+        <v>10807</v>
       </c>
     </row>
     <row r="13" spans="6:7">
